--- a/pythonScripts/testEditExcel/onewire/SR920ToolArmTemplate_NO6322021000058.xlsx
+++ b/pythonScripts/testEditExcel/onewire/SR920ToolArmTemplate_NO6322021000058.xlsx
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
       <c r="D46">
-        <v>-1.5123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4">
